--- a/Outputs/weighted_avg_pressures_output.xlsx
+++ b/Outputs/weighted_avg_pressures_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Weighted Average Pressure</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Weighted Average Pressure (kPa)</t>
         </is>
       </c>
@@ -455,10 +450,7 @@
         <v>4.2e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06819330677321832</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4701764838077147</v>
+        <v>0.4623764173048603</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +458,7 @@
         <v>0.0051723</v>
       </c>
       <c r="B3" t="n">
-        <v>8.398005729121971</v>
-      </c>
-      <c r="C3" t="n">
-        <v>57.902233980921</v>
+        <v>56.94165579109287</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +466,7 @@
         <v>0.010387097</v>
       </c>
       <c r="B4" t="n">
-        <v>16.86501171914731</v>
-      </c>
-      <c r="C4" t="n">
-        <v>116.2802082007081</v>
+        <v>114.351159453762</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +474,7 @@
         <v>0.021225806</v>
       </c>
       <c r="B5" t="n">
-        <v>34.4632833349248</v>
-      </c>
-      <c r="C5" t="n">
-        <v>237.6160674063061</v>
+        <v>233.6740983973307</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +482,7 @@
         <v>0.03116129</v>
       </c>
       <c r="B6" t="n">
-        <v>49.57200561446445</v>
-      </c>
-      <c r="C6" t="n">
-        <v>341.7870814303849</v>
+        <v>335.6602946744452</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +490,7 @@
         <v>0.042451613</v>
       </c>
       <c r="B7" t="n">
-        <v>64.54673328091005</v>
-      </c>
-      <c r="C7" t="n">
-        <v>445.0342347558873</v>
+        <v>436.4318896258937</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +498,7 @@
         <v>0.06277419400000001</v>
       </c>
       <c r="B8" t="n">
-        <v>87.59220241703565</v>
-      </c>
-      <c r="C8" t="n">
-        <v>603.9272135368807</v>
+        <v>591.8499531502088</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +506,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>103.6457323381782</v>
-      </c>
-      <c r="C9" t="n">
-        <v>714.6124494959772</v>
+        <v>700.2789288726643</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +514,7 @@
         <v>0.127354839</v>
       </c>
       <c r="B10" t="n">
-        <v>123.5442400747799</v>
-      </c>
-      <c r="C10" t="n">
-        <v>851.8078846979897</v>
+        <v>835.2073150282934</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +522,7 @@
         <v>0.169806452</v>
       </c>
       <c r="B11" t="n">
-        <v>137.1588990419043</v>
-      </c>
-      <c r="C11" t="n">
-        <v>945.6776907581599</v>
+        <v>926.8872635845004</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +530,7 @@
         <v>0.210451613</v>
       </c>
       <c r="B12" t="n">
-        <v>143.1794119345246</v>
-      </c>
-      <c r="C12" t="n">
-        <v>987.1876822296824</v>
+        <v>967.1077592961077</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +538,7 @@
         <v>0.252903226</v>
       </c>
       <c r="B13" t="n">
-        <v>147.7651672628571</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1018.805364637256</v>
+        <v>998.2599087619441</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +546,7 @@
         <v>0.294</v>
       </c>
       <c r="B14" t="n">
-        <v>150.7349929437055</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1039.281599948543</v>
+        <v>1018.43796696344</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +554,7 @@
         <v>0.336</v>
       </c>
       <c r="B15" t="n">
-        <v>152.8612883504711</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1053.941896467294</v>
+        <v>1032.886100572154</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +562,7 @@
         <v>0.378451613</v>
       </c>
       <c r="B16" t="n">
-        <v>154.4126670216177</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1064.638280073969</v>
+        <v>1043.428723300355</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +570,7 @@
         <v>0.42</v>
       </c>
       <c r="B17" t="n">
-        <v>155.5436055780259</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1072.43582999515</v>
+        <v>1051.114846673769</v>
       </c>
     </row>
   </sheetData>
